--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/21.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/21.xlsx
@@ -479,13 +479,13 @@
         <v>-20.87702702451956</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.117142012943241</v>
+        <v>-9.487222137370312</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.93084562798789</v>
+        <v>-2.98091059405465</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.695573403680867</v>
+        <v>-6.195476803086494</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-20.38576851013127</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.396060432683374</v>
+        <v>-9.771076355281775</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.945849407044508</v>
+        <v>-2.958562033103824</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.636828240830043</v>
+        <v>-6.153856372352647</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.81659217880701</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.22134683461442</v>
+        <v>-10.59750178756005</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.800276091747356</v>
+        <v>-2.790103372439334</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.510841010584112</v>
+        <v>-6.036536246587939</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.20206414969073</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.97782009280935</v>
+        <v>-11.33486028360606</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.732039009336279</v>
+        <v>-2.73697480750761</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.737259295928923</v>
+        <v>-6.270875375151994</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.56447377299187</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.78757902357011</v>
+        <v>-12.17005755878829</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.571763037947869</v>
+        <v>-2.557859012329956</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.276122205237647</v>
+        <v>-5.791657814236294</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-17.92731510773912</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.47534387645166</v>
+        <v>-12.85859485753751</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.543627679141</v>
+        <v>-2.507767861657512</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.375964106708651</v>
+        <v>-5.883408672551111</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.32742037094612</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.00805658677865</v>
+        <v>-13.41541049739612</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.42697526082122</v>
+        <v>-2.40512420737838</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.910912417467698</v>
+        <v>-5.38984194772088</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.79238526893264</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.98433651738332</v>
+        <v>-14.41272975866744</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.189520164180835</v>
+        <v>-2.196956592194935</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.775145236998999</v>
+        <v>-5.210765429451751</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.33969885355622</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.74718572706218</v>
+        <v>-15.1702765856954</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.17196338607008</v>
+        <v>-2.17204193988713</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.376942846067901</v>
+        <v>-4.823285634548026</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.97633087707001</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.41829717072905</v>
+        <v>-15.85508257813472</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.990137484204188</v>
+        <v>-1.972227213916707</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.150982791322551</v>
+        <v>-4.587349245037281</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.711940349828</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.07275520518126</v>
+        <v>-16.50829684381696</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.031168761310158</v>
+        <v>-2.054211214311596</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.632449044973148</v>
+        <v>-4.059389040641835</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-15.53694909340883</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.04332689174694</v>
+        <v>-17.48419709763922</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.83685280253326</v>
+        <v>-1.848504952062396</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.993335189451448</v>
+        <v>-3.402508930163913</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-15.45277203297658</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.65357221950263</v>
+        <v>-18.07890186192179</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.577140791061939</v>
+        <v>-1.586567249107982</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.647541286795779</v>
+        <v>-3.09832236593925</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-15.44201696704293</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.55537003924072</v>
+        <v>-18.99614859901311</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.434133567121766</v>
+        <v>-1.444829978543456</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.073469991791775</v>
+        <v>-2.512441813772008</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-15.48047857397625</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.4511715842773</v>
+        <v>-19.90387723193851</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.272273427089506</v>
+        <v>-1.27799476343134</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.669061849313698</v>
+        <v>-2.101304227633285</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-15.5381035737149</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.24795604292191</v>
+        <v>-20.70318850503157</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.053317754364479</v>
+        <v>-1.08176732843955</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.159509422713719</v>
+        <v>-1.599790474978126</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-15.59584105257889</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.20691485686698</v>
+        <v>-21.66028821197311</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.970364923559303</v>
+        <v>-0.9896629779480073</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.7944174656693465</v>
+        <v>-1.22982818127663</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-15.62956992008576</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.04318570088223</v>
+        <v>-22.50044746993235</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8353570966554239</v>
+        <v>-0.8796614494718249</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.4226877110842182</v>
+        <v>-0.8731938518680122</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-15.63394448292751</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.69281267558583</v>
+        <v>-23.17332637448287</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5938041092255779</v>
+        <v>-0.65230051832241</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.06206022930887364</v>
+        <v>-0.5261561804423793</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-15.59889221848452</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.31364967634049</v>
+        <v>-23.78984291529975</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3046213240575325</v>
+        <v>-0.3737355907590044</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2846501345457161</v>
+        <v>-0.1695742202451281</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-15.51634920981098</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.96315882031852</v>
+        <v>-24.45261456205645</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1000671844584044</v>
+        <v>-0.200406593437393</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3550736315313606</v>
+        <v>-0.02716924223567367</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-15.37974094742155</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.42360201895918</v>
+        <v>-24.88697789343639</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01382818563995481</v>
+        <v>-0.1311614037075038</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6001877253341561</v>
+        <v>0.1890632314982741</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-15.1927339381235</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.80858118402013</v>
+        <v>-25.30182060127932</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.04339060545657227</v>
+        <v>-0.166471344471639</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5785199641310994</v>
+        <v>0.2035171338355397</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-14.95493693013166</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.08620346577894</v>
+        <v>-25.56487114997528</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2516313467788829</v>
+        <v>0.1316796681429887</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5562368646944816</v>
+        <v>0.1995370737716549</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-14.67878054721781</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.08946344918652</v>
+        <v>-25.57019971723187</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2505054087344945</v>
+        <v>0.1140574285180254</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4119858719843438</v>
+        <v>0.04720813020817212</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-14.36968216537046</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.0508935250148</v>
+        <v>-25.55841664467431</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05543009639277609</v>
+        <v>-0.0854954513955633</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4060943357055671</v>
+        <v>0.05997312547885504</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-14.03121127698311</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.13426530951091</v>
+        <v>-25.6212596983146</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2151954679703593</v>
+        <v>0.09691960409820601</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1091739995580616</v>
+        <v>-0.230374874642104</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-13.66633320012813</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.18647741324371</v>
+        <v>-25.69643570123179</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1760232978679149</v>
+        <v>0.04375176225795644</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01606154174770581</v>
+        <v>-0.3056556159820289</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-13.28292097680322</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.97080790853196</v>
+        <v>-25.45785466654701</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04287457796756079</v>
+        <v>-0.06833144237006043</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1651228372789413</v>
+        <v>-0.4666385717238926</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.88526703693435</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.50685597272972</v>
+        <v>-25.0106346937765</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04470750036540244</v>
+        <v>-0.07427534786020407</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6661259901232727</v>
+        <v>-0.9828549804703097</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-12.48755335109124</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.55571644693504</v>
+        <v>-25.06949768735289</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1001534029001123</v>
+        <v>-0.007465326458875939</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7905814209367207</v>
+        <v>-1.127263080814548</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-12.09645420878189</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.16000159354387</v>
+        <v>-24.6610047463882</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03783404137349626</v>
+        <v>-0.05882643050696731</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.293325850059002</v>
+        <v>-1.629994417633988</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-11.71590599982971</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.56400069127997</v>
+        <v>-24.04444892866279</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.06745425807966478</v>
+        <v>-0.1283203739908493</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.36241393215479</v>
+        <v>-1.678789430325101</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.34924277205487</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.20723543884294</v>
+        <v>-23.68679339963252</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.260866847960484</v>
+        <v>-0.3221257329569203</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.450341838039823</v>
+        <v>-1.800482385238944</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.00251118517581</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.46312131453059</v>
+        <v>-22.91594479291737</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3733951908851195</v>
+        <v>-0.429246954807923</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.637509399465138</v>
+        <v>-1.976023981740808</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-10.67916207436809</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.66620593285757</v>
+        <v>-22.12630873162435</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3133146131444386</v>
+        <v>-0.3717848376355872</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.774559625612327</v>
+        <v>-2.129779986314039</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-10.38956860494077</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.28431655126726</v>
+        <v>-21.74113318202077</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3876396163769175</v>
+        <v>-0.4365655520964478</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.034873883014366</v>
+        <v>-2.39792344081543</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.13650896522833</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.63262099271466</v>
+        <v>-21.09185969949389</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2621368013361314</v>
+        <v>-0.3485067231829983</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.204445389420402</v>
+        <v>-2.578322281671574</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.918819623455732</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.27792432412662</v>
+        <v>-20.7120781786611</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.505143034381409</v>
+        <v>-0.560248537042234</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.423322508328379</v>
+        <v>-2.786241143101025</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.734694352432363</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.71935431568722</v>
+        <v>-20.11616892251709</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2454964844242976</v>
+        <v>-0.3290908380687185</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.292883895116262</v>
+        <v>-2.68410808863272</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.583444982373161</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.15793018522832</v>
+        <v>-19.58484399629133</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.008735279834523367</v>
+        <v>-0.08950169606513148</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.344205722255828</v>
+        <v>-2.766733611866854</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.462835342158387</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.26043973312516</v>
+        <v>-18.67702371724604</v>
       </c>
       <c r="F43" t="n">
-        <v>0.007394437266483149</v>
+        <v>-0.06729715044556407</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.268506027224968</v>
+        <v>-2.722075766873726</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.374979525242347</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.92724062580323</v>
+        <v>-18.34502910178555</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04148679386633783</v>
+        <v>-0.02561125819750827</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.466474738494708</v>
+        <v>-2.939761486223105</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.315941780238244</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.38117376657768</v>
+        <v>-17.78584375511259</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01665069537558348</v>
+        <v>-0.04919049561545692</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.523688101913051</v>
+        <v>-3.004581477592491</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.278020228793388</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.94468948213737</v>
+        <v>-17.3332690304798</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0748197969013724</v>
+        <v>0.02205781644921635</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.426228999559242</v>
+        <v>-2.861390961412533</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.25476271523627</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.30012922863352</v>
+        <v>-16.66745996946382</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0658777540604735</v>
+        <v>-0.01592295409463098</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.764219889721242</v>
+        <v>-3.22248976609018</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.241452647873547</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.64171731872311</v>
+        <v>-16.01173198163597</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0763777809395378</v>
+        <v>0.01765880269439639</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.67675021443567</v>
+        <v>-3.110445838370688</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.234455706498997</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.06577382441274</v>
+        <v>-15.40169613072575</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1842452640525189</v>
+        <v>0.1129838596850039</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.916012048868214</v>
+        <v>-3.384847413630425</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.234677866994472</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.38362556945029</v>
+        <v>-14.70873363361603</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3135186623117221</v>
+        <v>0.2114641616604674</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.876866063371453</v>
+        <v>-3.34613347412744</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.23991931793744</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.57759794499942</v>
+        <v>-13.89426147383225</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3175772761926571</v>
+        <v>0.2308669544719054</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.977532779921485</v>
+        <v>-3.485527222483298</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.245575615397843</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.97446173768678</v>
+        <v>-13.30272504683738</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3951622628327258</v>
+        <v>0.3017617743598521</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.956323249317889</v>
+        <v>-3.434676718246034</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.24994400370856</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.33862095787552</v>
+        <v>-12.6502832270228</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4519043033487666</v>
+        <v>0.3652987200507487</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.998192433805729</v>
+        <v>-3.485527222483298</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.252745494481328</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.95953332909334</v>
+        <v>-12.26945432196268</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3500200026344544</v>
+        <v>0.2499424397123003</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.131367338311766</v>
+        <v>-3.651930391601637</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.254861662647635</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.45278265530149</v>
+        <v>-11.72323035510302</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1212058258696079</v>
+        <v>0.05909594118845939</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.600621656764912</v>
+        <v>-4.093455212636006</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.259491689251176</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.03866002411485</v>
+        <v>-11.30163201899376</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1726978529461165</v>
+        <v>0.07369385885698396</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.689361285426131</v>
+        <v>-4.198363835306758</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.26670900555575</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.27447539954614</v>
+        <v>-10.5352347952448</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1266260392460825</v>
+        <v>0.02688887619781326</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.06822634506</v>
+        <v>-4.598778825418107</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.272997951355572</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.986353090908276</v>
+        <v>-10.26777214049118</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.04312875939973775</v>
+        <v>-0.1370005707749136</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.090876028976187</v>
+        <v>-4.620603694255265</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.278136060733992</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.40278987634402</v>
+        <v>-9.666521224787751</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0245453539891443</v>
+        <v>-0.07940753057416068</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.378841229979951</v>
+        <v>-4.919147475955144</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.281853709962366</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.06494300151328</v>
+        <v>-9.332340194752692</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.0951313862870737</v>
+        <v>-0.1909277661799833</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.290677662643768</v>
+        <v>-4.812851069183171</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.285735283091833</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.524401094086935</v>
+        <v>-8.781180429721708</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1203078846517129</v>
+        <v>-0.2157638646707377</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.681181779503931</v>
+        <v>-5.189817744904989</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.29283984683458</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.038519551024796</v>
+        <v>-8.303245914484499</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.08190816041693036</v>
+        <v>-0.1743921876908833</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.675381889345046</v>
+        <v>-5.208199338094772</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.303351707057105</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.579398674971148</v>
+        <v>-7.855096388212215</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.09518375549844059</v>
+        <v>-0.1858217680717102</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.662289586503321</v>
+        <v>-5.187382576576428</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.313411653582776</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.239653416228356</v>
+        <v>-7.507849239941114</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2570962647420669</v>
+        <v>-0.342785386841164</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.864748957647772</v>
+        <v>-5.374864353269945</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.323151281179403</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.86657515445053</v>
+        <v>-7.149486726557389</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2051067301575727</v>
+        <v>-0.2806885944628573</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.127275814230064</v>
+        <v>-5.628436074708496</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.331381352406574</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.618646215536764</v>
+        <v>-6.899816511365673</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3135502745955897</v>
+        <v>-0.3954426288705862</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.100685347158518</v>
+        <v>-5.591044457792526</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.33939136212817</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.463554796073677</v>
+        <v>-6.73944889385737</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3913578303839677</v>
+        <v>-0.4851772725477767</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.193522866609197</v>
+        <v>-5.676511010743313</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.348926698880893</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.190200605041277</v>
+        <v>-6.466893333298317</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3456133242549768</v>
+        <v>-0.4347719066071313</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.192344559353442</v>
+        <v>-5.659098247963819</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.359079105362854</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.057824331008586</v>
+        <v>-6.343472194409365</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6140840863274116</v>
+        <v>-0.7207994467903208</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.248706923087073</v>
+        <v>-5.692444343301695</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.36470161496166</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.864254633493665</v>
+        <v>-6.157469847936962</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5518694632235293</v>
+        <v>-0.6379906313164034</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.089059382235066</v>
+        <v>-5.528240681060766</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.365597713821233</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.757552365333598</v>
+        <v>-6.066203404827291</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6232617906194615</v>
+        <v>-0.7054945447683429</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.032251880204816</v>
+        <v>-5.444305927542461</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.359557077552372</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.768798653474641</v>
+        <v>-6.080618030256031</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7432003769525141</v>
+        <v>-0.8324113285160355</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.893696039230829</v>
+        <v>-5.274302375142647</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.348187208134208</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.817056881749243</v>
+        <v>-6.136378148058942</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7793089481899945</v>
+        <v>-0.8808528490304219</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.699131326699938</v>
+        <v>-5.091520735169309</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.333118214831195</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.046643504381752</v>
+        <v>-6.355687312960695</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6643192523311146</v>
+        <v>-0.7576804638954631</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.558808024842318</v>
+        <v>-4.945868866055108</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.313729697857669</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.250451382718901</v>
+        <v>-6.543011982020112</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.002820742303942</v>
+        <v>-1.100070367812283</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.389184149224914</v>
+        <v>-4.776022421289395</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.285631335437092</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.732994388556399</v>
+        <v>-7.01303874634092</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9311272919426501</v>
+        <v>-1.033207977199588</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.207633185718699</v>
+        <v>-4.56853560585372</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.25032714960736</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.181942545302028</v>
+        <v>-7.449064800181764</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9896498856451655</v>
+        <v>-1.096116492354082</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.126866769488092</v>
+        <v>-4.492063464955198</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.206756277061615</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.771043803968333</v>
+        <v>-8.04666296339235</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.048486694615883</v>
+        <v>-1.149794934005159</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.757113952632064</v>
+        <v>-4.129720891507588</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.158600111356265</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.192197001780977</v>
+        <v>-8.460602302339204</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.025247857071819</v>
+        <v>-1.149690195582425</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.584321739726963</v>
+        <v>-3.980075870026659</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.10865771883496</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.658571013608944</v>
+        <v>-8.915939502871595</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.204782605940408</v>
+        <v>-1.288088928922311</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.216532768297194</v>
+        <v>-3.616358604780667</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.057442438773908</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.559321449119697</v>
+        <v>-9.804409358316809</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.148446426812461</v>
+        <v>-1.260974769737097</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.2121730314509</v>
+        <v>-3.61888541922912</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.000950496262375</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.3417960207583</v>
+        <v>-10.56597552231717</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.233729687523465</v>
+        <v>-1.342068493538748</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.015513550465332</v>
+        <v>-3.417159217043805</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.940700369480844</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.15409485827035</v>
+        <v>-11.36002368966786</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.351887720670042</v>
+        <v>-1.469613707822843</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.665255172540635</v>
+        <v>-3.080464464863135</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.873667484296902</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.34957921535404</v>
+        <v>-12.54710278832716</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.428372953871406</v>
+        <v>-1.541673742663703</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.520559041533878</v>
+        <v>-2.930596874233897</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.801691333757059</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.22977473540328</v>
+        <v>-13.42609381651497</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.509047723982122</v>
+        <v>-1.610028655800355</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.187530134148892</v>
+        <v>-2.598654627984774</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.724182859245007</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.38951710572906</v>
+        <v>-14.56452191781442</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.690624872094021</v>
+        <v>-1.79104283489006</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.932400428672176</v>
+        <v>-2.340723169699929</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.638344059223076</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.45893567874977</v>
+        <v>-15.62184320300937</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.73703708566794</v>
+        <v>-1.827321606064483</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.519010966444676</v>
+        <v>-1.919831817944119</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.537435136306687</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.84616990325338</v>
+        <v>-17.01322768751381</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.712986525347689</v>
+        <v>-1.78672237495229</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.208173512376415</v>
+        <v>-1.629693294668628</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.420206448298936</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.4978817374627</v>
+        <v>-18.64681977459018</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.949394237760737</v>
+        <v>-2.010312722883288</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.013792092085309</v>
+        <v>-1.445720255136693</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.280924161102828</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.07875112099544</v>
+        <v>-20.22164051421004</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.161306251556915</v>
+        <v>-2.226034596806409</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.7199222624999251</v>
+        <v>-1.157165900505051</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.120051148977927</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.85967089194975</v>
+        <v>-21.95110753499637</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.348552366799281</v>
+        <v>-2.394401611351006</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.8617249945786601</v>
+        <v>-1.295957402930189</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.93575198625181</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.53845760843576</v>
+        <v>-23.60732312138324</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.44237180896309</v>
+        <v>-2.498027188343268</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.6678410817955388</v>
+        <v>-1.091835309324838</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.725296339531253</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.62273912853571</v>
+        <v>-25.70417325221125</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.596245644261896</v>
+        <v>-2.629984508685025</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.6581920546011867</v>
+        <v>-1.071175655440594</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.484279005473438</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.84353409036634</v>
+        <v>-27.91580360205267</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.464118123983197</v>
+        <v>-2.48431954726798</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.7775022103978364</v>
+        <v>-1.174395371044762</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.214181670535286</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.12304803044211</v>
+        <v>-30.18255254685775</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.937771456191163</v>
+        <v>-2.939394901743537</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.130339771982354</v>
+        <v>-1.523331426382445</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.911275978201949</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.32364156898795</v>
+        <v>-32.4007814173314</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.993544666296916</v>
+        <v>-2.968485998657852</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.377011849823315</v>
+        <v>-1.774337056464018</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.58293146968974</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.54642656085052</v>
+        <v>-34.63300595954285</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.329807372483808</v>
+        <v>-3.274937531274134</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.57092194721212</v>
+        <v>-1.959671695491492</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.22728734160851</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.06339559756667</v>
+        <v>-37.1431015372671</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.589165891778402</v>
+        <v>-3.526257376623908</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.988932992342749</v>
+        <v>-2.391115443337732</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.852245869077692</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.56968131516398</v>
+        <v>-39.62034852716145</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.526178822806858</v>
+        <v>-3.46650410645427</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.447294514831579</v>
+        <v>-2.858759408541346</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.44751127003959</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.13365171908193</v>
+        <v>-42.18564125366642</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.701288373314944</v>
+        <v>-3.641233980179946</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.77376417849286</v>
+        <v>-3.162108065384139</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.033500369187962</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.42496182401809</v>
+        <v>-44.48457107885647</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.94405894490907</v>
+        <v>-3.867272588742347</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.339718245734995</v>
+        <v>-3.696994097982857</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.585332960550885</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.76072029710191</v>
+        <v>-46.80924037143335</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.091059321215971</v>
+        <v>-4.001769815835399</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.653108698857392</v>
+        <v>-4.007949382776693</v>
       </c>
     </row>
   </sheetData>
